--- a/Idaho/WaterAllocation/ID_Allocation Schema Mapping to WaDE.xlsx
+++ b/Idaho/WaterAllocation/ID_Allocation Schema Mapping to WaDE.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE7080-A323-494D-9DC6-8642D2466380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ED25D-227F-4A0F-B109-394619C19CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="7" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
-    <sheet name="Methods" sheetId="1" r:id="rId2"/>
-    <sheet name="Variables" sheetId="2" r:id="rId3"/>
-    <sheet name="Organizations" sheetId="6" r:id="rId4"/>
-    <sheet name="WaterSources" sheetId="3" r:id="rId5"/>
-    <sheet name="Sites" sheetId="5" r:id="rId6"/>
-    <sheet name="AllocationsAmounts_fact" sheetId="7" r:id="rId7"/>
-    <sheet name="Misc" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
+    <sheet name="Mapping Notes" sheetId="10" r:id="rId2"/>
+    <sheet name="Methods" sheetId="1" r:id="rId3"/>
+    <sheet name="Variables" sheetId="2" r:id="rId4"/>
+    <sheet name="Organizations" sheetId="6" r:id="rId5"/>
+    <sheet name="WaterSources" sheetId="3" r:id="rId6"/>
+    <sheet name="Sites" sheetId="5" r:id="rId7"/>
+    <sheet name="AllocationsAmounts_fact" sheetId="7" r:id="rId8"/>
+    <sheet name="Misc" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="330">
   <si>
     <t>Name</t>
   </si>
@@ -547,15 +548,9 @@
     <t>AllocationPriorityDateID</t>
   </si>
   <si>
-    <t>DataPublicationDateID</t>
-  </si>
-  <si>
     <t>ExemptOfVolumeFlowPriority</t>
   </si>
   <si>
-    <t>PrimaryUseCategoryCV</t>
-  </si>
-  <si>
     <t>SDWISIdentifierCV</t>
   </si>
   <si>
@@ -580,39 +575,24 @@
     <t>Foreign key unique identifier to Variables_dim table.</t>
   </si>
   <si>
-    <t>BigInt</t>
-  </si>
-  <si>
     <t>Primary key unique identifier for allocation records.</t>
   </si>
   <si>
     <t>Foreign key unique identifier to Methods_dim table.</t>
   </si>
   <si>
-    <t>NVarChar(500)</t>
-  </si>
-  <si>
     <t>List of other sites if this water right has one or more associate consumptive use sites. Add the consumptive use UUIDs as comma separated list here.</t>
   </si>
   <si>
     <t>List of other sites if this water right has one or more associate diversion sites. Add the diversion UUIDs as comma separated list</t>
   </si>
   <si>
-    <t>NVarChar(250)</t>
-  </si>
-  <si>
     <t>Description of whether this water right is based on water withdrawals/diversion or consumptive use/depletion amount.</t>
   </si>
   <si>
-    <t>NVarChar(100)</t>
-  </si>
-  <si>
     <t>Indicate if this water right was the result of a change application.</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>Crop Duty amount. The number of acres of land that is irrigated for the complete growth of a crop by supplying 1-meter cubes per second of water continuously throughout the crop.</t>
   </si>
   <si>
@@ -628,9 +608,6 @@
     <t>The state's unique identifier for the water right and it's record.</t>
   </si>
   <si>
-    <t>NVarChar(5)</t>
-  </si>
-  <si>
     <t>Description of the type of water right (e.g., Underground Water Claim, Federal Reserved Water Right, etc).</t>
   </si>
   <si>
@@ -646,9 +623,6 @@
     <t>A unique digital object identifier into the original dataset.</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
     <t>Database indicator for special records. if yes (1), then amount flow, volume, and priority dates can be null (e.g., this case represents groundwater rights in Arizona outside the AMA and INA areas).</t>
   </si>
   <si>
@@ -661,22 +635,10 @@
     <t>If the use is municipal, the data provider can add the SDWIS identifier for the CWS.</t>
   </si>
   <si>
-    <t>WaterAllcationNativeURL</t>
-  </si>
-  <si>
     <t>Refers back to the state URL that describes the water right (e.g., https://www.waterrights.utah.gov/asp_apps/wrprint/wrprint.asp?wrnum=55-12888).</t>
   </si>
   <si>
     <t>The power (GWh) to be generated by the water right record (if available) (mostly applies to power generating beneficial uses).</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>NULL?</t>
-  </si>
-  <si>
-    <t>Description</t>
   </si>
   <si>
     <t>The type of crop watered by the water right (if available) (e.g., wheat, alfalfa, corn, hay, etc.) (applies mostly to irrigation uses).</t>
@@ -994,53 +956,25 @@
     <t>DataSource</t>
   </si>
   <si>
-    <t>DiversionName</t>
-  </si>
-  <si>
-    <t>PointOfDiversionID</t>
-  </si>
-  <si>
     <t>IDwr_S + counter</t>
   </si>
   <si>
     <t>*get from watersource.csv</t>
   </si>
   <si>
-    <t>Y
-Latitude</t>
-  </si>
-  <si>
-    <t>X
-Longitude</t>
-  </si>
-  <si>
     <t>Unspecified</t>
-  </si>
-  <si>
-    <t>Unspecified if blank</t>
-  </si>
-  <si>
-    <t>*Will need to convert to EPSG:4326
-*Caculated in ArcGIS Pro</t>
   </si>
   <si>
     <t>DataSource for POD
 "Centroid" for POU</t>
   </si>
   <si>
-    <t>PointOfDiversionID for POD
-*create custom ID for POU</t>
-  </si>
-  <si>
     <t>IDwr_WR + counter</t>
   </si>
   <si>
     <t>get from sites.csv</t>
   </si>
   <si>
-    <t>OveralMaxDiversionRate</t>
-  </si>
-  <si>
     <t>Basis</t>
   </si>
   <si>
@@ -1053,218 +987,74 @@
     <t>Status</t>
   </si>
   <si>
-    <t>WaterRightNumber</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>PriorityDate</t>
-  </si>
-  <si>
-    <t>WaterUse</t>
-  </si>
-  <si>
-    <t>Left Join PoU to POD via RightID.</t>
-  </si>
-  <si>
     <t>DataPublicationDate</t>
   </si>
   <si>
-    <t>If AcreLimit &gt; 0, = AcreLimit
-Else use TotalAcre</t>
-  </si>
-  <si>
-    <t>TotalAcre, AcreLimit</t>
-  </si>
-  <si>
     <t>auto fill in processing code</t>
   </si>
   <si>
-    <t>WRDocs</t>
-  </si>
-  <si>
     <t>POU</t>
   </si>
   <si>
     <t>4) Drain = Canal</t>
   </si>
   <si>
-    <t>DOMESTIC</t>
-  </si>
-  <si>
-    <t>STOCKWATER</t>
-  </si>
-  <si>
-    <t>IRRIGATION</t>
-  </si>
-  <si>
-    <t>MUNICIPAL</t>
-  </si>
-  <si>
-    <t>STOCKWATER STORAGE</t>
-  </si>
-  <si>
-    <t>COMMERCIAL</t>
-  </si>
-  <si>
-    <t>STOCKWATER FROM STORAGE</t>
-  </si>
-  <si>
-    <t>IRRIGATION FROM STORAGE</t>
-  </si>
-  <si>
-    <t>WILDLIFE STORAGE</t>
-  </si>
-  <si>
-    <t>WILDLIFE</t>
-  </si>
-  <si>
-    <t>RECREATION STORAGE</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL</t>
-  </si>
-  <si>
-    <t>IRRIGATION STORAGE</t>
-  </si>
-  <si>
-    <t>FISH PROPAGATION</t>
-  </si>
-  <si>
-    <t>AESTHETIC STORAGE</t>
-  </si>
-  <si>
-    <t>FIRE PROTECTION</t>
-  </si>
-  <si>
-    <t>RECREATION</t>
-  </si>
-  <si>
-    <t>WILDLIFE FROM STORAGE</t>
-  </si>
-  <si>
-    <t>POWER</t>
-  </si>
-  <si>
-    <t>FIRE PROTECTION STORAGE</t>
-  </si>
-  <si>
-    <t>HEATING</t>
-  </si>
-  <si>
-    <t>AESTHETIC</t>
-  </si>
-  <si>
-    <t>MINING</t>
-  </si>
-  <si>
-    <t>MITIGATION</t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVE</t>
-  </si>
-  <si>
-    <t>COOLING</t>
-  </si>
-  <si>
-    <t>MITIGATION BY NON-USE</t>
-  </si>
-  <si>
-    <t>DIVERSION TO STORAGE</t>
-  </si>
-  <si>
-    <t>FIRE PROTECTION FROM STORAGE</t>
-  </si>
-  <si>
-    <t>GROUND WATER RECHARGE</t>
-  </si>
-  <si>
-    <t>WATER QUALITY IMPROVEMENT</t>
-  </si>
-  <si>
-    <t>FISH PROPAGATION STORAGE</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL FROM STORAGE</t>
-  </si>
-  <si>
-    <t>DOMESTIC FROM STORAGE</t>
-  </si>
-  <si>
-    <t>DOMESTIC STORAGE</t>
-  </si>
-  <si>
-    <t>WATER QUALITY IMPROVEMENT STORAGE</t>
-  </si>
-  <si>
-    <t>INDUSTRIAL STORAGE</t>
-  </si>
-  <si>
-    <t>MUNICIPAL FROM STORAGE</t>
-  </si>
-  <si>
-    <t>COMMERCIAL STORAGE</t>
-  </si>
-  <si>
-    <t>POWER FROM STORAGE</t>
-  </si>
-  <si>
-    <t>LAKE LEVEL MAINTENANCE</t>
-  </si>
-  <si>
-    <t>COMMERCIAL FROM STORAGE</t>
-  </si>
-  <si>
-    <t>MINIMUM STREAM FLOW</t>
-  </si>
-  <si>
-    <t>MINING STORAGE</t>
-  </si>
-  <si>
-    <t>FEDERAL RESERVED USE</t>
-  </si>
-  <si>
-    <t>POWER STORAGE</t>
-  </si>
-  <si>
-    <t>MUNICIPAL STORAGE</t>
-  </si>
-  <si>
-    <t>MINING FROM STORAGE</t>
-  </si>
-  <si>
-    <t>AESTHETIC FROM STORAGE</t>
-  </si>
-  <si>
-    <t>FISH HABITAT STORAGE</t>
-  </si>
-  <si>
-    <t>RECREATION FROM STORAGE</t>
-  </si>
-  <si>
-    <t>FISH HABITAT</t>
-  </si>
-  <si>
-    <t>WATER QUALITY IMPROVEMENT FROM STORAGE</t>
-  </si>
-  <si>
-    <t>FISH PROPAGATION FROM STORAGE</t>
-  </si>
-  <si>
-    <t>FLOOD CONTROL STORAGE</t>
-  </si>
-  <si>
-    <t>GROUND WATER RECHARGE STORAGE</t>
-  </si>
-  <si>
-    <t>GROUND WATER RECHARGE FROM STORAGE</t>
-  </si>
-  <si>
-    <t>COOLING STORAGE</t>
-  </si>
-  <si>
-    <t>COOLING FROM STORAGE</t>
+    <t>WRReport</t>
+  </si>
+  <si>
+    <t>Organizaitons:</t>
+  </si>
+  <si>
+    <t>WaDE GitHUB</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/datasets/water-right-pods/explore</t>
+  </si>
+  <si>
+    <t>https://data-idwr.hub.arcgis.com/documents/IDWR::place-of-use-water-right/about</t>
+  </si>
+  <si>
+    <t>WaterRight</t>
+  </si>
+  <si>
+    <t>PriorityDa</t>
+  </si>
+  <si>
+    <t>OverallMax</t>
+  </si>
+  <si>
+    <t>AcreLimit</t>
+  </si>
+  <si>
+    <t>Uses
+WaterUse</t>
+  </si>
+  <si>
+    <t>PointOfDiv
+'PlaceOfUse</t>
+  </si>
+  <si>
+    <t>POD site names repeat in the source data.  No names tgiven for POU</t>
+  </si>
+  <si>
+    <t>DiversionN</t>
+  </si>
+  <si>
+    <t>Unspecified if blank / for POU</t>
+  </si>
+  <si>
+    <t>Latitude
+cent_Latit</t>
+  </si>
+  <si>
+    <t>Longitude
+cent_Longi</t>
+  </si>
+  <si>
+    <t>Annual</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1064,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1484,8 +1274,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1958,7 +1756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2001,8 +1799,9 @@
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2058,23 +1857,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2160,9 +1950,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2190,7 +1977,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2204,32 +1991,14 @@
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2242,22 +2011,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2279,35 +2045,65 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2341,6 +2137,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2660,116 +2457,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4830BD-BE5C-4A2A-BA89-DD592E350923}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="86"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="86" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="86"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="64"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="87"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="87"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B36168B-09C0-417E-9065-BDBB534C15F4}">
+  <dimension ref="B6:B8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="103"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="103"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="103"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7154D4B-C952-456C-B506-1C3DB2041E3D}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" style="62" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="58" customWidth="1"/>
     <col min="2" max="2" width="55.77734375" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" s="81" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="82" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="84">
+      <c r="A2" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="74">
         <v>44813</v>
       </c>
-      <c r="C2" s="81"/>
+      <c r="C2" s="71"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="83" t="s">
-        <v>275</v>
+      <c r="B3" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="75"/>
+      <c r="C6" s="73"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
         <v>274</v>
       </c>
-      <c r="B4" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="83"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="73"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="83"/>
+        <v>275</v>
+      </c>
+      <c r="C8" s="73"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C9" s="83"/>
+        <v>276</v>
+      </c>
+      <c r="C9" s="73"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>340</v>
-      </c>
-      <c r="C10" s="83"/>
+        <v>312</v>
+      </c>
+      <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="83"/>
+        <v>305</v>
+      </c>
+      <c r="C11" s="73"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2777,7 +2685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
@@ -2852,13 +2760,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2867,7 +2775,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2875,28 +2783,28 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>181</v>
+      <c r="J4" s="69" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2913,18 +2821,18 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>278</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>224</v>
+      <c r="J5" s="69" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2940,18 +2848,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="61">
+      <c r="I6" s="57">
         <v>0.5</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="69" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2968,19 +2876,19 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="E7" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="79" t="s">
-        <v>225</v>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="69" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -2996,19 +2904,19 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="E8" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="79" t="s">
-        <v>226</v>
+      <c r="J8" s="69" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3025,16 +2933,16 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>280</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="79" t="s">
-        <v>280</v>
+      <c r="J9" s="69" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3051,18 +2959,18 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>281</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>227</v>
+      <c r="J10" s="69" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3079,18 +2987,18 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+        <v>279</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="79" t="s">
-        <v>228</v>
+      <c r="J11" s="69" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3106,19 +3014,19 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>229</v>
+      <c r="J12" s="69" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3130,12 +3038,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F86677-A939-4892-ADA0-492C09897DFD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3205,16 +3113,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3222,28 +3130,28 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>178</v>
+      <c r="J4" s="69" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3259,19 +3167,19 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="84">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>230</v>
+      <c r="J5" s="69" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3287,19 +3195,19 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="E6" s="84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="79" t="s">
-        <v>231</v>
+      <c r="J6" s="69" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3315,19 +3223,19 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>232</v>
+      <c r="J7" s="69" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3343,19 +3251,19 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="98"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="79" t="s">
-        <v>233</v>
+      <c r="J8" s="69" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3371,19 +3279,19 @@
       <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="98"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="79" t="s">
-        <v>234</v>
+      <c r="J9" s="69" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3399,19 +3307,19 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="84">
         <v>10</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="98"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>235</v>
+      <c r="J10" s="69" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -3427,19 +3335,19 @@
       <c r="D11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="98"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="79" t="s">
-        <v>236</v>
+      <c r="J11" s="69" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3455,19 +3363,19 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="98"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>237</v>
+      <c r="J12" s="69" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -3483,19 +3391,19 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="98"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="79" t="s">
-        <v>238</v>
+      <c r="J13" s="69" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3507,7 +3415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -3582,13 +3490,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3597,7 +3505,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3605,28 +3513,28 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="C4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>177</v>
+      <c r="J4" s="69" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3643,18 +3551,18 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>285</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="79" t="s">
-        <v>239</v>
+      <c r="J5" s="69" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3671,18 +3579,18 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+        <v>286</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="79" t="s">
-        <v>240</v>
+      <c r="J6" s="69" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3699,18 +3607,18 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+        <v>287</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>241</v>
+      <c r="J7" s="69" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -3727,18 +3635,18 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+        <v>288</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="79" t="s">
-        <v>242</v>
+      <c r="J8" s="69" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -3755,18 +3663,18 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>302</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>289</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="79" t="s">
-        <v>243</v>
+      <c r="J9" s="69" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -3783,18 +3691,18 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>290</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>244</v>
+      <c r="J10" s="69" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -3811,18 +3719,18 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+        <v>291</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="79" t="s">
-        <v>245</v>
+      <c r="J11" s="69" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -3841,16 +3749,16 @@
       <c r="E12" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="79" t="s">
-        <v>246</v>
+      <c r="J12" s="69" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -3886,12 +3794,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC5F405-0A84-4CAE-BAB0-9DF044EAE9B9}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3961,227 +3869,227 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="69" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="89" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>308</v>
-      </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>247</v>
+      <c r="J4" s="69" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>248</v>
+      <c r="D5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="79" t="s">
-        <v>249</v>
+      <c r="E6" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="C7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>250</v>
+      <c r="J7" s="69" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="D8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J8" s="79" t="s">
-        <v>251</v>
+      <c r="J8" s="69" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="63" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="D9" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="79" t="s">
-        <v>252</v>
+      <c r="J9" s="69" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="216" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="72" t="s">
-        <v>306</v>
-      </c>
-      <c r="F10" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="G10" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="E10" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>253</v>
+      <c r="J10" s="69" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4201,12 +4109,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E7F0DF-14BE-4BB8-BB6C-8815808B0B66}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4276,22 +4184,22 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="67" t="s">
+      <c r="E3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="69" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4299,94 +4207,94 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="91" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="95" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="67" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
-        <v>174</v>
-      </c>
-      <c r="B5" s="71" t="s">
+      <c r="J4" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="79" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76" t="s">
+      <c r="E5" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>314</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="79" t="s">
-        <v>247</v>
+      <c r="E6" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="69" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4402,23 +4310,23 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="67" t="s">
+      <c r="E7" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>256</v>
+      <c r="J7" s="69" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -4434,23 +4342,23 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="E8" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="H8" s="67" t="s">
+      <c r="G8" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J8" s="79" t="s">
-        <v>257</v>
+      <c r="J8" s="69" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4466,23 +4374,23 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>258</v>
+      <c r="E9" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4498,23 +4406,23 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="51">
         <v>4326</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="67" t="s">
+      <c r="F10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>259</v>
+      <c r="J10" s="69" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4530,21 +4438,21 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="67" t="s">
+      <c r="E11" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18"/>
-      <c r="J11" s="79" t="s">
-        <v>248</v>
+      <c r="J11" s="69" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4560,23 +4468,23 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>249</v>
+      <c r="E12" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4592,23 +4500,23 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="79" t="s">
-        <v>260</v>
+      <c r="E13" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="69" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4624,91 +4532,91 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="79" t="s">
-        <v>261</v>
+      <c r="E14" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="69" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="94" t="s">
-        <v>319</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="H15" s="67" t="s">
+      <c r="D15" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="H15" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J15" s="79" t="s">
-        <v>262</v>
+      <c r="J15" s="69" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>319</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="67" t="s">
+      <c r="D16" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="63" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J16" s="79" t="s">
-        <v>263</v>
+      <c r="J16" s="69" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="45" t="s">
         <v>61</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -4720,293 +4628,292 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="79" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+      <c r="E17" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="69" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="79" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
+      <c r="E18" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="69" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A19" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="70" t="s">
+      <c r="D19" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="J19" s="79" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+      <c r="J19" s="69" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="D20" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="G20" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="H20" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="55" t="s">
+      <c r="G20" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="79" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="J20" s="69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="73" t="s">
-        <v>321</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="H21" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="55">
+      <c r="D21" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="H21" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="51">
         <v>3703994</v>
       </c>
-      <c r="J21" s="79" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="48" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="J21" s="69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I22" s="55" t="s">
+      <c r="D22" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="J22" s="79" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="J22" s="69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="55" t="s">
+      <c r="E23" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="79" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="J23" s="69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="D24" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="55" t="s">
+      <c r="F24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="J24" s="79" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+      <c r="J24" s="69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="79" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="68"/>
       <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5021,12 +4928,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5079,206 +4986,206 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="68" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="55">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="51">
         <v>50004</v>
       </c>
-      <c r="J3" s="79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="J3" s="69" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="52" t="s">
+      <c r="C4" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="55">
+      <c r="E4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="51">
         <v>43</v>
       </c>
-      <c r="J4" s="79"/>
-    </row>
-    <row r="5" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="J4" s="69"/>
+    </row>
+    <row r="5" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="52" t="s">
+      <c r="C5" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="55">
+      <c r="E5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="51">
         <v>1</v>
       </c>
-      <c r="J5" s="79"/>
-    </row>
-    <row r="6" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="48" t="s">
+      <c r="J5" s="69"/>
+    </row>
+    <row r="6" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="55">
+      <c r="E6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="51">
         <v>39035</v>
       </c>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="J6" s="69"/>
+    </row>
+    <row r="7" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="52" t="s">
+      <c r="C7" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="55">
+      <c r="E7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="51">
         <v>63</v>
       </c>
-      <c r="J7" s="79" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="49" t="s">
+      <c r="J7" s="69" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="97" t="s">
-        <v>322</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="C8" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="F8" s="90"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="69"/>
+    </row>
+    <row r="9" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="99" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="79" t="s">
-        <v>181</v>
+      <c r="C9" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="69" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -5294,19 +5201,19 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="79" t="s">
-        <v>177</v>
+      <c r="E10" s="93" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -5322,969 +5229,969 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="79" t="s">
-        <v>254</v>
+      <c r="E11" s="94" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="69" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="C12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>283</v>
+      </c>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="55">
+      <c r="E13" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="51">
         <v>5363</v>
       </c>
-      <c r="J13" s="79" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="J13" s="69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="37" t="s">
+      <c r="E14" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J14" s="79" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="J14" s="69" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="37" t="s">
+      <c r="E15" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="79" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="J15" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="55" t="s">
+      <c r="E16" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="51" t="s">
         <v>162</v>
       </c>
-      <c r="G16" s="75" t="s">
-        <v>325</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="55" t="s">
+      <c r="G16" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="79" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
+      <c r="J16" s="69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="37" t="s">
+      <c r="E17" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F17" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J17" s="79" t="s">
-        <v>188</v>
+      <c r="J17" s="69" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="37" t="s">
+      <c r="E18" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="79" t="s">
+      <c r="J18" s="69" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="79" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="E19" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="37" t="s">
+      <c r="E20" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I20" s="18">
         <v>5200</v>
       </c>
-      <c r="J20" s="79" t="s">
-        <v>191</v>
+      <c r="J20" s="69" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="96" t="s">
+      <c r="E21" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="G21" s="98" t="s">
-        <v>324</v>
-      </c>
-      <c r="H21" s="37" t="s">
+      <c r="G21" s="85" t="s">
+        <v>320</v>
+      </c>
+      <c r="H21" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="18">
         <v>1</v>
       </c>
-      <c r="J21" s="79" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="J21" s="69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>328</v>
-      </c>
-      <c r="H22" s="37" t="s">
+      <c r="E22" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="H22" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J22" s="79" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="J22" s="69" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="33" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="66" t="s">
-        <v>329</v>
-      </c>
-      <c r="H23" s="37" t="s">
+      <c r="E23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="H23" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="79" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="J23" s="69" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" s="66" t="s">
-        <v>330</v>
-      </c>
-      <c r="H24" s="37" t="s">
+      <c r="E24" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G24" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="79" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
+      <c r="J24" s="69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="47" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="H25" s="37" t="s">
+      <c r="E25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="H25" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="J25" s="79" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="36" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="J25" s="69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="49" t="s">
+      <c r="B26" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F26" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="58">
+      <c r="E26" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F26" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="54">
         <v>44196</v>
       </c>
-      <c r="J26" s="79" t="s">
-        <v>219</v>
+      <c r="J26" s="69" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="C27" s="49" t="s">
+      <c r="B27" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="58">
+      <c r="E27" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="54">
         <v>43831</v>
       </c>
-      <c r="J27" s="79" t="s">
-        <v>220</v>
+      <c r="J27" s="69" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="37" t="s">
+      <c r="E28" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I28" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="79" t="s">
-        <v>196</v>
+      <c r="J28" s="69" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="37" t="s">
+      <c r="E29" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="18">
         <v>0</v>
       </c>
-      <c r="J29" s="79" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+      <c r="J29" s="69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="47" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="G30" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="H30" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="79" t="s">
-        <v>222</v>
+      <c r="E30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G30" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="69" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H31" s="37" t="s">
+      <c r="E31" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I31" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J31" s="79" t="s">
-        <v>198</v>
+      <c r="J31" s="69" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="37" t="s">
+      <c r="E32" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
+      <c r="J32" s="69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F33" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="37" t="s">
+      <c r="E33" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="79" t="s">
-        <v>215</v>
+      <c r="J33" s="69" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="B34" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="102">
+      <c r="C34" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="99">
         <v>44813</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I34" s="59">
+      <c r="F34" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="55">
         <v>43874</v>
       </c>
-      <c r="J34" s="79" t="s">
-        <v>199</v>
+      <c r="J34" s="69" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="60">
+      <c r="E35" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="56">
         <v>33187</v>
       </c>
-      <c r="J35" s="79" t="s">
-        <v>200</v>
+      <c r="J35" s="69" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="C36" s="50" t="s">
+      <c r="A36" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="90">
         <v>0</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="79" t="s">
-        <v>202</v>
+      <c r="F36" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="34"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="69" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+      <c r="E37" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F37" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J37" s="69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="G38" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="79" t="s">
-        <v>203</v>
+      <c r="E38" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G38" s="62" t="s">
+        <v>321</v>
+      </c>
+      <c r="H38" s="33"/>
+      <c r="I38" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="69" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="37" t="s">
+      <c r="E39" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I39" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J39" s="79" t="s">
-        <v>213</v>
+      <c r="J39" s="69" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E40" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I40" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="B41" s="49" t="s">
+      <c r="E40" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J40" s="69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" s="79" t="s">
-        <v>216</v>
+      <c r="E41" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="F41" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" s="69" t="s">
+        <v>203</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -6294,103 +6201,103 @@
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="79" t="s">
-        <v>217</v>
+      <c r="E42" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="69" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="46" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="37" t="s">
+      <c r="E43" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F43" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I43" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J43" s="79"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-    </row>
-    <row r="44" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="B44" s="49" t="s">
+      <c r="J43" s="69"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+    </row>
+    <row r="44" spans="1:16" s="45" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="52" t="s">
+      <c r="D44" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="33" t="s">
-        <v>337</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="55" t="s">
+      <c r="E44" s="90" t="s">
+        <v>310</v>
+      </c>
+      <c r="F44" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="J44" s="79" t="s">
-        <v>223</v>
+      <c r="J44" s="69" t="s">
+        <v>210</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -6400,93 +6307,93 @@
       <c r="P44" s="5"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="49" t="s">
+      <c r="A45" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D45" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="67"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="48"/>
+      <c r="E45" s="90" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="63"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
     </row>
     <row r="46" spans="1:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="49" t="s">
+      <c r="C46" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F46" s="55" t="s">
-        <v>309</v>
-      </c>
-      <c r="G46" s="98" t="s">
-        <v>338</v>
-      </c>
-      <c r="H46" s="37" t="s">
+      <c r="D46" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="G46" s="85" t="s">
+        <v>313</v>
+      </c>
+      <c r="H46" s="34" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J46" s="79" t="s">
-        <v>207</v>
+      <c r="J46" s="69" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="48"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="64"/>
+      <c r="A87" s="60"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:P46">
@@ -6498,960 +6405,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A68CD9-E6C8-4C1E-8A36-F76F66BA5935}">
-  <dimension ref="A1:A59"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>349</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B59">
     <sortCondition ref="A2:A59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8721E02D-3A7D-42CA-8571-B836ED87640D}">
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31:F31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="80" t="s">
-        <v>209</v>
-      </c>
-      <c r="C1" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="D1" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="80"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" t="s">
-        <v>189</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>194</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>221</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>197</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C24" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" t="s">
-        <v>187</v>
-      </c>
-      <c r="C26" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>215</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>199</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>200</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>185</v>
-      </c>
-      <c r="C33" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>204</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>216</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" t="s">
-        <v>189</v>
-      </c>
-      <c r="C35" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" t="s">
-        <v>217</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>170</v>
-      </c>
-      <c r="B36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" t="b">
-        <v>1</v>
-      </c>
-      <c r="D38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F5">
-    <sortCondition ref="A3:A5"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Idaho/WaterAllocation/ID_Allocation Schema Mapping to WaDE.xlsx
+++ b/Idaho/WaterAllocation/ID_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4ED25D-227F-4A0F-B109-394619C19CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B5886-80E8-4133-8BA7-35232384CD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="2" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="331">
   <si>
     <t>Name</t>
   </si>
@@ -884,13 +884,7 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Methodology used for tracking diversions in the state of Idaho.</t>
-  </si>
-  <si>
     <t>Idaho Water Rights Method</t>
-  </si>
-  <si>
-    <t>Water Use</t>
   </si>
   <si>
     <t>IDwr_V1</t>
@@ -1055,6 +1049,15 @@
   </si>
   <si>
     <t>Annual</t>
+  </si>
+  <si>
+    <t>The Idaho Department of Water Resources is making this data available as a public service. The Idaho Department of Water Resources strives to ensure that all technical data and other information made available to the public is accurate, complete and in conformance with the Idaho Public Records Act. Neither the Department of Water Resources nor the State of Idaho, however, assumes any legal responsibility for the accuracy or completeness of the information contained on this site. Persons using information from this site for official purposes, or other purposes, for which accuracy and completeness are required, are hereby notified that they should first verify the information with the public records or other primary sources from which the information was obtained.</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
+  </si>
+  <si>
+    <t>https://idwr.idaho.gov/water-rights/overview/</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1804,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2089,9 +2092,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,6 +2102,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2482,7 +2488,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B2" s="75" t="s">
         <v>272</v>
@@ -2490,7 +2496,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="58" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B3" s="86"/>
     </row>
@@ -2499,12 +2505,12 @@
         <v>159</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="86" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2515,7 +2521,7 @@
         <v>160</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2554,13 +2560,13 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
+      <c r="B6" s="102"/>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="103"/>
+      <c r="B7" s="102"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="103"/>
+      <c r="B8" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C11" s="73"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2689,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2919,7 +2925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -2959,7 +2965,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
@@ -2973,7 +2979,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2986,8 +2992,8 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>279</v>
+      <c r="E11" s="104" t="s">
+        <v>330</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3015,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="20"/>
@@ -3033,8 +3039,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{3AA25C6B-1B1F-4DA7-8E65-87F62FA1567E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3042,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F86677-A939-4892-ADA0-492C09897DFD}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3140,10 +3149,10 @@
         <v>38</v>
       </c>
       <c r="E4" s="81" t="s">
-        <v>283</v>
-      </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="101"/>
+        <v>281</v>
+      </c>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
@@ -3170,7 +3179,7 @@
       <c r="E5" s="84">
         <v>1</v>
       </c>
-      <c r="F5" s="102"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="98"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
@@ -3196,9 +3205,9 @@
         <v>20</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>329</v>
-      </c>
-      <c r="F6" s="102"/>
+        <v>327</v>
+      </c>
+      <c r="F6" s="101"/>
       <c r="G6" s="98"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
@@ -3226,7 +3235,7 @@
       <c r="E7" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="102"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="98"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
@@ -3254,7 +3263,7 @@
       <c r="E8" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="102"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="98"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
@@ -3282,7 +3291,7 @@
       <c r="E9" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="102"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="98"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
@@ -3310,7 +3319,7 @@
       <c r="E10" s="84">
         <v>10</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="98"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
@@ -3338,7 +3347,7 @@
       <c r="E11" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="102"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="98"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
@@ -3366,7 +3375,7 @@
       <c r="E12" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="102"/>
+      <c r="F12" s="101"/>
       <c r="G12" s="98"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
@@ -3394,7 +3403,7 @@
       <c r="E13" s="84" t="s">
         <v>142</v>
       </c>
-      <c r="F13" s="102"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="98"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
@@ -3523,7 +3532,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="40"/>
@@ -3551,7 +3560,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="20"/>
@@ -3579,7 +3588,7 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F6" s="19"/>
       <c r="G6" s="20"/>
@@ -3607,7 +3616,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="20"/>
@@ -3635,7 +3644,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
@@ -3663,7 +3672,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="20"/>
@@ -3691,7 +3700,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="20"/>
@@ -3719,7 +3728,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="20"/>
@@ -3900,7 +3909,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F4" s="81"/>
       <c r="G4" s="82"/>
@@ -4019,10 +4028,10 @@
         <v>38</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G8" s="62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
@@ -4046,7 +4055,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F9" s="59" t="s">
         <v>38</v>
@@ -4076,13 +4085,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G10" s="62" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
@@ -4215,7 +4224,7 @@
         <v>38</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F4" s="81" t="s">
         <v>38</v>
@@ -4279,7 +4288,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>38</v>
@@ -4311,7 +4320,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>38</v>
@@ -4343,13 +4352,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>162</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>38</v>
@@ -4442,7 +4451,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>47</v>
@@ -4568,10 +4577,10 @@
         <v>38</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H15" s="63" t="s">
         <v>38</v>
@@ -4600,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H16" s="63" t="s">
         <v>38</v>
@@ -4693,7 +4702,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>38</v>
@@ -4725,13 +4734,13 @@
         <v>38</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>162</v>
       </c>
       <c r="G20" s="42" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H20" s="63" t="s">
         <v>38</v>
@@ -4760,10 +4769,10 @@
         <v>38</v>
       </c>
       <c r="F21" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G21" s="42" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H21" s="63" t="s">
         <v>38</v>
@@ -4821,7 +4830,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>38</v>
@@ -4932,8 +4941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5152,7 +5161,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="89" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F8" s="90"/>
       <c r="G8" s="91"/>
@@ -5202,7 +5211,7 @@
         <v>38</v>
       </c>
       <c r="E10" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F10" s="90"/>
       <c r="G10" s="91"/>
@@ -5230,7 +5239,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F11" s="90"/>
       <c r="G11" s="91"/>
@@ -5258,7 +5267,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F12" s="96"/>
       <c r="G12" s="97"/>
@@ -5388,7 +5397,7 @@
         <v>162</v>
       </c>
       <c r="G16" s="66" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H16" s="34" t="s">
         <v>38</v>
@@ -5548,7 +5557,7 @@
         <v>162</v>
       </c>
       <c r="G21" s="85" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H21" s="34" t="s">
         <v>38</v>
@@ -5577,10 +5586,10 @@
         <v>38</v>
       </c>
       <c r="F22" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G22" s="62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H22" s="34" t="s">
         <v>38</v>
@@ -5609,10 +5618,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G23" s="62" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H23" s="34" t="s">
         <v>38</v>
@@ -5641,10 +5650,10 @@
         <v>38</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G24" s="62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>38</v>
@@ -5673,10 +5682,10 @@
         <v>38</v>
       </c>
       <c r="F25" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H25" s="34" t="s">
         <v>38</v>
@@ -5833,10 +5842,10 @@
         <v>38</v>
       </c>
       <c r="F30" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G30" s="42" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H30" s="34" t="s">
         <v>38</v>
@@ -5946,7 +5955,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>33</v>
@@ -5957,8 +5966,8 @@
       <c r="D34" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="99">
-        <v>44813</v>
+      <c r="E34" s="103">
+        <v>44918</v>
       </c>
       <c r="F34" s="90" t="s">
         <v>38</v>
@@ -6085,10 +6094,10 @@
         <v>38</v>
       </c>
       <c r="F38" s="30" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G38" s="62" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="53" t="s">
@@ -6176,7 +6185,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F41" s="90" t="s">
         <v>38</v>
@@ -6282,7 +6291,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="90" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F44" s="90" t="s">
         <v>38</v>
@@ -6357,10 +6366,10 @@
         <v>38</v>
       </c>
       <c r="F46" s="51" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G46" s="85" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H46" s="34" t="s">
         <v>38</v>

--- a/Idaho/WaterAllocation/ID_Allocation Schema Mapping to WaDE.xlsx
+++ b/Idaho/WaterAllocation/ID_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Idaho\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA1B5886-80E8-4133-8BA7-35232384CD0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D658096-A93F-4BE7-9334-627AA9A9AB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="2" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="714" activeTab="7" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="12" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="332">
   <si>
     <t>Name</t>
   </si>
@@ -1058,6 +1058,9 @@
   </si>
   <si>
     <t>https://idwr.idaho.gov/water-rights/overview/</t>
+  </si>
+  <si>
+    <t>OverallM_1</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4941,8 +4944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P87"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5806,14 +5809,14 @@
       <c r="D29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="90" t="s">
-        <v>279</v>
-      </c>
-      <c r="F29" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="91" t="s">
-        <v>38</v>
+      <c r="E29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>331</v>
       </c>
       <c r="H29" s="34" t="s">
         <v>38</v>
